--- a/Document/4.Test/180916_DeXuatSua.xlsx
+++ b/Document/4.Test/180916_DeXuatSua.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D83C2FF-69E2-40B2-8661-9279C2D50508}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2E1CD7-00C3-46BC-8F5C-093B53205F38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$52</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -665,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,11 +1180,11 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="3"/>
@@ -1205,7 +1205,7 @@
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="11"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -1216,7 +1216,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -1238,7 +1238,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="11"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -1247,9 +1247,9 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="11"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1257,8 +1257,8 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
@@ -1271,7 +1271,7 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="11"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -1293,7 +1293,7 @@
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="10"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="10"/>
       <c r="D40" s="9"/>
       <c r="E40" s="11"/>
@@ -1326,7 +1326,7 @@
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="11"/>
+      <c r="E41" s="10"/>
       <c r="F41" s="11"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -1337,7 +1337,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="10"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -1403,7 +1403,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="11"/>
+      <c r="E48" s="9"/>
       <c r="F48" s="11"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -1423,20 +1423,20 @@
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="E50" s="10"/>
       <c r="F50" s="11"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
+      <c r="A51" s="1"/>
       <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
+      <c r="C51" s="10"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="10"/>
+      <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -1453,19 +1453,8 @@
       <c r="H52" s="6"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I52" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"New, Resolve, Confirm, Close, Cancel, Accept"</formula1>

--- a/Document/4.Test/180916_DeXuatSua.xlsx
+++ b/Document/4.Test/180916_DeXuatSua.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2E1CD7-00C3-46BC-8F5C-093B53205F38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321BA9F9-249D-45F4-A135-7655ECF8B0EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$50</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -665,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,11 +1169,11 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="4"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="3"/>
@@ -1183,7 +1183,7 @@
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="11"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -1205,7 +1205,7 @@
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -1216,7 +1216,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="11"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="11"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -1225,9 +1225,9 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="11"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="11"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -1235,10 +1235,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="9"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="E33" s="10"/>
       <c r="F33" s="11"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -1246,10 +1246,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="11"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1260,7 +1260,7 @@
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="11"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -1271,7 +1271,7 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -1282,7 +1282,7 @@
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="10"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="10"/>
       <c r="D38" s="9"/>
       <c r="E38" s="11"/>
@@ -1301,10 +1301,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="10"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="10"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="11"/>
+      <c r="E39" s="10"/>
       <c r="F39" s="11"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -1326,7 +1326,7 @@
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -1381,7 +1381,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="10"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="11"/>
+      <c r="E46" s="9"/>
       <c r="F46" s="11"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -1392,7 +1392,7 @@
       <c r="B47" s="9"/>
       <c r="C47" s="10"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="11"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="11"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -1401,60 +1401,38 @@
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+      <c r="E48" s="10"/>
       <c r="F48" s="11"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
+      <c r="A49" s="1"/>
       <c r="B49" s="9"/>
       <c r="C49" s="10"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
+      <c r="A50" s="1"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
+      <c r="C50" s="10"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="10"/>
+      <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I52" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I50" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"New, Resolve, Confirm, Close, Cancel, Accept"</formula1>

--- a/Document/4.Test/180916_DeXuatSua.xlsx
+++ b/Document/4.Test/180916_DeXuatSua.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321BA9F9-249D-45F4-A135-7655ECF8B0EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C87EA9-2867-4474-A121-F715B4EA8414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$49</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -665,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1183,7 @@
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -1205,7 +1205,7 @@
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="11"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -1214,9 +1214,9 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="11"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -1224,8 +1224,8 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
@@ -1238,7 +1238,7 @@
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="11"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -1260,7 +1260,7 @@
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="10"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="10"/>
       <c r="D37" s="9"/>
       <c r="E37" s="11"/>
@@ -1293,7 +1293,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="11"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="11"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -1304,7 +1304,7 @@
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="10"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -1370,7 +1370,7 @@
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="11"/>
+      <c r="E45" s="9"/>
       <c r="F45" s="11"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -1390,20 +1390,20 @@
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+      <c r="E47" s="10"/>
       <c r="F47" s="11"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
+      <c r="A48" s="1"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
+      <c r="C48" s="10"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
+      <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -1420,19 +1420,8 @@
       <c r="H49" s="6"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I50" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"New, Resolve, Confirm, Close, Cancel, Accept"</formula1>
